--- a/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m20deg_95thr_LV0d5/report_cal.xlsx
+++ b/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m20deg_95thr_LV0d5/report_cal.xlsx
@@ -423,19 +423,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>165.2122400421185</v>
+        <v>165.1673132022546</v>
       </c>
       <c r="C2">
-        <v>0.4967290156198571</v>
+        <v>0.2929120217278653</v>
       </c>
       <c r="D2">
-        <v>16088.05597755807</v>
+        <v>16089.16914049983</v>
       </c>
       <c r="E2">
-        <v>11.53600597338292</v>
+        <v>5.836064900607823</v>
       </c>
       <c r="F2">
-        <v>42.34569308690525</v>
+        <v>42.84170248552362</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>136.6255543927578</v>
+        <v>136.6626531266982</v>
       </c>
       <c r="C3">
-        <v>0.5985491594659783</v>
+        <v>0.9239270272840565</v>
       </c>
       <c r="D3">
-        <v>15917.5967698706</v>
+        <v>15916.68161105382</v>
       </c>
       <c r="E3">
-        <v>10.74728685684435</v>
+        <v>20.42470584169325</v>
       </c>
       <c r="F3">
-        <v>92.19020357530106</v>
+        <v>91.99650022834052</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>160.7715426715698</v>
+        <v>160.7715427179752</v>
       </c>
       <c r="C4">
-        <v>0.7389507251520836</v>
+        <v>0.7389507138269413</v>
       </c>
       <c r="D4">
-        <v>16344.26410300526</v>
+        <v>16344.26410224496</v>
       </c>
       <c r="E4">
-        <v>14.95341689844745</v>
+        <v>14.9534169063641</v>
       </c>
       <c r="F4">
-        <v>74.96054269960705</v>
+        <v>74.96054269958037</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +483,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>153.8518397246476</v>
+        <v>153.7078569657106</v>
       </c>
       <c r="C5">
-        <v>0.9366289203075916</v>
+        <v>0.8987251809200542</v>
       </c>
       <c r="D5">
-        <v>15227.81777357977</v>
+        <v>15228.86682848909</v>
       </c>
       <c r="E5">
-        <v>22.76658606652962</v>
+        <v>20.99029376197744</v>
       </c>
       <c r="F5">
-        <v>88.56777352456156</v>
+        <v>74.66868684407342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>155.1259091347352</v>
+        <v>155.0896718491437</v>
       </c>
       <c r="C6">
-        <v>1.358439328705903</v>
+        <v>1.782212483153093</v>
       </c>
       <c r="D6">
-        <v>15804.22033774924</v>
+        <v>15802.33821620349</v>
       </c>
       <c r="E6">
-        <v>30.80410456101596</v>
+        <v>40.90839355218504</v>
       </c>
       <c r="F6">
-        <v>222.009070440581</v>
+        <v>191.4736179335571</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +523,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>180.9561200227423</v>
+        <v>180.9012342110002</v>
       </c>
       <c r="C7">
-        <v>0.5708560711938386</v>
+        <v>0.4123355080214693</v>
       </c>
       <c r="D7">
-        <v>15287.74632178662</v>
+        <v>15289.09464831368</v>
       </c>
       <c r="E7">
-        <v>13.25735060460165</v>
+        <v>9.017520868198389</v>
       </c>
       <c r="F7">
-        <v>44.15847734409244</v>
+        <v>44.96980679309993</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +543,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>148.9547668389842</v>
+        <v>148.9547668389474</v>
       </c>
       <c r="C8">
-        <v>0.3805685887492055</v>
+        <v>0.3805686226078487</v>
       </c>
       <c r="D8">
-        <v>16244.83885993562</v>
+        <v>16244.83885993363</v>
       </c>
       <c r="E8">
-        <v>8.614125999431232</v>
+        <v>8.614126811239419</v>
       </c>
       <c r="F8">
-        <v>35.21820487501313</v>
+        <v>35.21820511411158</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +563,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>173.0027464003957</v>
+        <v>173.0027464293933</v>
       </c>
       <c r="C9">
-        <v>0.6988050814263389</v>
+        <v>0.6988051315737014</v>
       </c>
       <c r="D9">
-        <v>15766.6191225227</v>
+        <v>15766.61912157972</v>
       </c>
       <c r="E9">
-        <v>15.10713326544123</v>
+        <v>15.10713365105902</v>
       </c>
       <c r="F9">
-        <v>76.50634220593693</v>
+        <v>76.50634258329781</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +583,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>172.4082481631074</v>
+        <v>172.474327614358</v>
       </c>
       <c r="C10">
-        <v>0.3767464919850236</v>
+        <v>0.3821565422450344</v>
       </c>
       <c r="D10">
-        <v>15639.39359536472</v>
+        <v>15638.97352484542</v>
       </c>
       <c r="E10">
-        <v>8.473678320384519</v>
+        <v>8.990927852748818</v>
       </c>
       <c r="F10">
-        <v>38.50327672787678</v>
+        <v>43.67124307618197</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>179.8866407771105</v>
+        <v>179.8866407774352</v>
       </c>
       <c r="C11">
-        <v>0.1571115840387091</v>
+        <v>0.1571115957706085</v>
       </c>
       <c r="D11">
-        <v>16389.88095112899</v>
+        <v>16389.88095113757</v>
       </c>
       <c r="E11">
-        <v>3.277155701549402</v>
+        <v>3.277155587638558</v>
       </c>
       <c r="F11">
-        <v>8.96106583836756</v>
+        <v>8.961065872346119</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -623,19 +623,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>158.2634916140844</v>
+        <v>158.2022941042111</v>
       </c>
       <c r="C12">
-        <v>0.3870263942851317</v>
+        <v>0.7061391207566839</v>
       </c>
       <c r="D12">
-        <v>16320.11631866904</v>
+        <v>16319.40858496389</v>
       </c>
       <c r="E12">
-        <v>9.16857991673926</v>
+        <v>16.93200421353918</v>
       </c>
       <c r="F12">
-        <v>44.70144851957131</v>
+        <v>35.85014052863144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,19 +643,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>172.4997568408218</v>
+        <v>172.4997566295755</v>
       </c>
       <c r="C13">
-        <v>1.142481909867036</v>
+        <v>1.142481904197759</v>
       </c>
       <c r="D13">
-        <v>15664.63620137706</v>
+        <v>15664.6362062712</v>
       </c>
       <c r="E13">
-        <v>27.13062196320966</v>
+        <v>27.13062186356884</v>
       </c>
       <c r="F13">
-        <v>34.31438135063648</v>
+        <v>34.31438136025183</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,19 +663,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>161.6209630076186</v>
+        <v>161.620963042302</v>
       </c>
       <c r="C14">
-        <v>0.7170890508674754</v>
+        <v>0.7170890269249087</v>
       </c>
       <c r="D14">
-        <v>15911.81970897201</v>
+        <v>15911.81970835159</v>
       </c>
       <c r="E14">
-        <v>15.74574517666611</v>
+        <v>15.74574479484885</v>
       </c>
       <c r="F14">
-        <v>37.96435107578265</v>
+        <v>37.96435109510544</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -683,19 +683,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>179.2723504171144</v>
+        <v>179.1357529579128</v>
       </c>
       <c r="C15">
-        <v>0.1448922729658303</v>
+        <v>0.1079135685169106</v>
       </c>
       <c r="D15">
-        <v>16137.70424242731</v>
+        <v>16138.5732056193</v>
       </c>
       <c r="E15">
-        <v>3.219166256313876</v>
+        <v>2.035258218340456</v>
       </c>
       <c r="F15">
-        <v>11.97549577374715</v>
+        <v>4.621051219231236</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -703,19 +703,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>162.2891621286622</v>
+        <v>162.2823993054315</v>
       </c>
       <c r="C16">
-        <v>0.495514248337634</v>
+        <v>0.4968265236146361</v>
       </c>
       <c r="D16">
-        <v>15620.32053557635</v>
+        <v>15620.37368163294</v>
       </c>
       <c r="E16">
-        <v>11.80834940696887</v>
+        <v>11.75286452775849</v>
       </c>
       <c r="F16">
-        <v>26.94964134116498</v>
+        <v>26.64870280411065</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -723,19 +723,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>155.787242379622</v>
+        <v>155.7872422886398</v>
       </c>
       <c r="C17">
-        <v>1.199464204574777</v>
+        <v>1.19946428720185</v>
       </c>
       <c r="D17">
-        <v>15491.81011720203</v>
+        <v>15491.81011985549</v>
       </c>
       <c r="E17">
-        <v>28.36617142782516</v>
+        <v>28.36617179185809</v>
       </c>
       <c r="F17">
-        <v>90.62621317939457</v>
+        <v>90.62621317939691</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -743,19 +743,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>172.9476772931484</v>
+        <v>172.9424701247586</v>
       </c>
       <c r="C18">
-        <v>0.5701571294635506</v>
+        <v>0.5740464898691215</v>
       </c>
       <c r="D18">
-        <v>15819.96830848727</v>
+        <v>15820.00531661562</v>
       </c>
       <c r="E18">
-        <v>13.11270490393495</v>
+        <v>13.09631603867006</v>
       </c>
       <c r="F18">
-        <v>38.19880883172841</v>
+        <v>38.03809884286249</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -763,19 +763,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>154.5655216248804</v>
+        <v>154.7192075344585</v>
       </c>
       <c r="C19">
-        <v>1.113233465089685</v>
+        <v>1.646322232333475</v>
       </c>
       <c r="D19">
-        <v>15406.37606088989</v>
+        <v>15402.67230581075</v>
       </c>
       <c r="E19">
-        <v>22.17543054815251</v>
+        <v>36.73759617559531</v>
       </c>
       <c r="F19">
-        <v>220.2377415924786</v>
+        <v>216.8443885672457</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -783,19 +783,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>158.6045226113939</v>
+        <v>158.6045225896802</v>
       </c>
       <c r="C20">
-        <v>1.068394131801054</v>
+        <v>1.068394066594757</v>
       </c>
       <c r="D20">
-        <v>16342.27449391615</v>
+        <v>16342.27449431395</v>
       </c>
       <c r="E20">
-        <v>25.54608232297018</v>
+        <v>25.54608078909181</v>
       </c>
       <c r="F20">
-        <v>160.7007521584297</v>
+        <v>160.7007521584386</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -803,19 +803,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>176.2194854951656</v>
+        <v>176.1590457867391</v>
       </c>
       <c r="C21">
-        <v>0.4203466392525946</v>
+        <v>0.2780847973774519</v>
       </c>
       <c r="D21">
-        <v>16470.59162235057</v>
+        <v>16472.07987487531</v>
       </c>
       <c r="E21">
-        <v>9.133244452354372</v>
+        <v>4.754699339267771</v>
       </c>
       <c r="F21">
-        <v>47.33797533622968</v>
+        <v>48.46376735494981</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -823,19 +823,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>180.3731151979509</v>
+        <v>180.4272539324121</v>
       </c>
       <c r="C22">
-        <v>0.2878869464741066</v>
+        <v>0.3944023706652636</v>
       </c>
       <c r="D22">
-        <v>15906.8180057325</v>
+        <v>15905.47932618288</v>
       </c>
       <c r="E22">
-        <v>6.16568241579562</v>
+        <v>9.097266577242793</v>
       </c>
       <c r="F22">
-        <v>30.92478505056333</v>
+        <v>30.16660286924332</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -843,19 +843,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>173.965417930702</v>
+        <v>173.9076365642515</v>
       </c>
       <c r="C23">
-        <v>0.4183577852944698</v>
+        <v>0.2344790881194626</v>
       </c>
       <c r="D23">
-        <v>15645.85037326998</v>
+        <v>15647.28344630085</v>
       </c>
       <c r="E23">
-        <v>10.01262156819105</v>
+        <v>5.121859746332158</v>
       </c>
       <c r="F23">
-        <v>31.56644233458848</v>
+        <v>32.32584257688895</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -863,19 +863,19 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>170.9650961282433</v>
+        <v>171.0381719835222</v>
       </c>
       <c r="C24">
-        <v>0.46476686439428</v>
+        <v>0.6045581777420973</v>
       </c>
       <c r="D24">
-        <v>16474.21246516536</v>
+        <v>16472.77143300063</v>
       </c>
       <c r="E24">
-        <v>9.634079738321928</v>
+        <v>13.58450331695155</v>
       </c>
       <c r="F24">
-        <v>137.5429127209172</v>
+        <v>141.4384996680507</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -883,19 +883,19 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>169.8942662482193</v>
+        <v>169.8947431194733</v>
       </c>
       <c r="C25">
-        <v>0.2069363424073509</v>
+        <v>0.202405116347809</v>
       </c>
       <c r="D25">
-        <v>16300.93233356672</v>
+        <v>16300.94156986699</v>
       </c>
       <c r="E25">
-        <v>4.566696803047734</v>
+        <v>4.466640787033238</v>
       </c>
       <c r="F25">
-        <v>10.38371757918332</v>
+        <v>9.932785504850949</v>
       </c>
     </row>
   </sheetData>
@@ -936,19 +936,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>145.4115884093178</v>
+        <v>145.5344450280823</v>
       </c>
       <c r="C2">
-        <v>0.64503299246663</v>
+        <v>0.6359016238541978</v>
       </c>
       <c r="D2">
-        <v>15964.39868126743</v>
+        <v>15963.61889467815</v>
       </c>
       <c r="E2">
-        <v>13.23196981126444</v>
+        <v>14.0721017448826</v>
       </c>
       <c r="F2">
-        <v>79.91459670223466</v>
+        <v>91.73102696919153</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -956,19 +956,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>172.0334545924724</v>
+        <v>172.0334546062716</v>
       </c>
       <c r="C3">
-        <v>0.5656698845296396</v>
+        <v>0.5656698421589001</v>
       </c>
       <c r="D3">
-        <v>15901.88428490333</v>
+        <v>15901.88428467236</v>
       </c>
       <c r="E3">
-        <v>13.07033816630035</v>
+        <v>13.0703370471011</v>
       </c>
       <c r="F3">
-        <v>28.48282759360431</v>
+        <v>28.48282755699626</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -976,19 +976,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>195.5988936152157</v>
+        <v>195.5988936155941</v>
       </c>
       <c r="C4">
-        <v>0.04067477968104407</v>
+        <v>0.04067478101619748</v>
       </c>
       <c r="D4">
-        <v>15648.88586251216</v>
+        <v>15648.88586250283</v>
       </c>
       <c r="E4">
-        <v>0.9021518971212897</v>
+        <v>0.9021518962385058</v>
       </c>
       <c r="F4">
-        <v>0.4527377626899465</v>
+        <v>0.4527377618240137</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -996,19 +996,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>173.0719582060096</v>
+        <v>173.0967919576294</v>
       </c>
       <c r="C5">
-        <v>0.3171140805010925</v>
+        <v>0.3011867463803209</v>
       </c>
       <c r="D5">
-        <v>15307.27392176784</v>
+        <v>15307.12317705933</v>
       </c>
       <c r="E5">
-        <v>6.100983339228689</v>
+        <v>6.169920282280135</v>
       </c>
       <c r="F5">
-        <v>22.68111265604978</v>
+        <v>23.4991085903055</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1016,19 +1016,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>165.8867630569916</v>
+        <v>165.8800075369717</v>
       </c>
       <c r="C6">
-        <v>0.3740459261449853</v>
+        <v>0.3766455400903208</v>
       </c>
       <c r="D6">
-        <v>15662.48399955461</v>
+        <v>15662.52749236882</v>
       </c>
       <c r="E6">
-        <v>8.809780479380818</v>
+        <v>8.769947819896574</v>
       </c>
       <c r="F6">
-        <v>24.360908922483</v>
+        <v>24.09592601721917</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1036,19 +1036,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>152.607222422738</v>
+        <v>152.6810998274293</v>
       </c>
       <c r="C7">
-        <v>1.819887667021805</v>
+        <v>1.826953739600887</v>
       </c>
       <c r="D7">
-        <v>15308.63223812666</v>
+        <v>15308.99840142229</v>
       </c>
       <c r="E7">
-        <v>42.32746517761899</v>
+        <v>42.71326916869626</v>
       </c>
       <c r="F7">
-        <v>71.17052754687099</v>
+        <v>92.76037641892228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1056,19 +1056,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>150.423895517851</v>
+        <v>150.3460060108036</v>
       </c>
       <c r="C8">
-        <v>0.7722434641660137</v>
+        <v>1.21028416907751</v>
       </c>
       <c r="D8">
-        <v>15411.89588547581</v>
+        <v>15410.75722317298</v>
       </c>
       <c r="E8">
-        <v>17.40520833648036</v>
+        <v>27.46051956724375</v>
       </c>
       <c r="F8">
-        <v>207.070716612664</v>
+        <v>171.8373615287607</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1076,19 +1076,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>194.1657102562891</v>
+        <v>194.1817945227568</v>
       </c>
       <c r="C9">
-        <v>0.2617031034339922</v>
+        <v>0.2767969804187425</v>
       </c>
       <c r="D9">
-        <v>16583.47028902344</v>
+        <v>16583.32095086951</v>
       </c>
       <c r="E9">
-        <v>6.285443106459037</v>
+        <v>6.655944273864907</v>
       </c>
       <c r="F9">
-        <v>8.355716113491823</v>
+        <v>9.373767005152532</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1096,19 +1096,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>148.2988608646472</v>
+        <v>148.2809251769292</v>
       </c>
       <c r="C10">
-        <v>2.89714642010869</v>
+        <v>2.899381552480628</v>
       </c>
       <c r="D10">
-        <v>15784.20602561073</v>
+        <v>15784.50071225344</v>
       </c>
       <c r="E10">
-        <v>69.13996450053367</v>
+        <v>69.07429163555501</v>
       </c>
       <c r="F10">
-        <v>145.3098287945295</v>
+        <v>144.5831712836049</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1116,19 +1116,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>173.4411283595703</v>
+        <v>173.5027245835306</v>
       </c>
       <c r="C11">
-        <v>0.2828391722631076</v>
+        <v>0.4557610819572211</v>
       </c>
       <c r="D11">
-        <v>15818.7850443674</v>
+        <v>15817.27053751486</v>
       </c>
       <c r="E11">
-        <v>5.718036400809806</v>
+        <v>10.50293200898093</v>
       </c>
       <c r="F11">
-        <v>21.13531542833477</v>
+        <v>20.59295580993759</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1136,19 +1136,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>173.8516150267417</v>
+        <v>173.8281345105712</v>
       </c>
       <c r="C12">
-        <v>0.8311274931416398</v>
+        <v>0.8417527754830235</v>
       </c>
       <c r="D12">
-        <v>16038.0079473303</v>
+        <v>16038.12950360709</v>
       </c>
       <c r="E12">
-        <v>10.58495199300961</v>
+        <v>10.79700559630078</v>
       </c>
       <c r="F12">
-        <v>5076.827245137288</v>
+        <v>5297.087380861451</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1156,19 +1156,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>178.7469826941011</v>
+        <v>178.7664619680166</v>
       </c>
       <c r="C13">
-        <v>0.1650864343643592</v>
+        <v>0.156903021617925</v>
       </c>
       <c r="D13">
-        <v>15345.34786950494</v>
+        <v>15345.22935866228</v>
       </c>
       <c r="E13">
-        <v>2.808419337485729</v>
+        <v>2.872687834649803</v>
       </c>
       <c r="F13">
-        <v>6.625427119545265</v>
+        <v>7.071058594382487</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1176,19 +1176,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>154.7872824993914</v>
+        <v>154.7552149870749</v>
       </c>
       <c r="C14">
-        <v>0.6819809290084837</v>
+        <v>0.6588179940686163</v>
       </c>
       <c r="D14">
-        <v>15876.50790807208</v>
+        <v>15876.92547627241</v>
       </c>
       <c r="E14">
-        <v>15.85694009290311</v>
+        <v>15.30034125321123</v>
       </c>
       <c r="F14">
-        <v>52.83742698904152</v>
+        <v>51.1408180099011</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1196,19 +1196,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>165.1400167818986</v>
+        <v>165.1400167818873</v>
       </c>
       <c r="C15">
-        <v>1.177793374627576</v>
+        <v>1.177793301148511</v>
       </c>
       <c r="D15">
-        <v>15469.26336070904</v>
+        <v>15469.2633607093</v>
       </c>
       <c r="E15">
-        <v>27.38829281879068</v>
+        <v>27.38829205203116</v>
       </c>
       <c r="F15">
-        <v>133.8349502041033</v>
+        <v>133.8349502041359</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1216,19 +1216,19 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>167.1344609478253</v>
+        <v>167.1344609478255</v>
       </c>
       <c r="C16">
-        <v>0.5423272414475688</v>
+        <v>0.5423271993802989</v>
       </c>
       <c r="D16">
-        <v>15897.4594148764</v>
+        <v>15897.45941487629</v>
       </c>
       <c r="E16">
-        <v>12.39089630086506</v>
+        <v>12.39089535800898</v>
       </c>
       <c r="F16">
-        <v>51.56723673770757</v>
+        <v>51.56723673768631</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1236,19 +1236,19 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>169.8466445503188</v>
+        <v>169.6736307475507</v>
       </c>
       <c r="C17">
-        <v>0.7870709991527558</v>
+        <v>0.6868817162841081</v>
       </c>
       <c r="D17">
-        <v>16275.92344570038</v>
+        <v>16277.97573011507</v>
       </c>
       <c r="E17">
-        <v>18.25031993055859</v>
+        <v>15.17681225291886</v>
       </c>
       <c r="F17">
-        <v>25.44809503916827</v>
+        <v>16.96642426799196</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1256,19 +1256,19 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>140.1785064609423</v>
+        <v>139.878449999611</v>
       </c>
       <c r="C18">
-        <v>1.504356607917462</v>
+        <v>1.389896060023748</v>
       </c>
       <c r="D18">
-        <v>16162.14084489351</v>
+        <v>16164.85988444035</v>
       </c>
       <c r="E18">
-        <v>35.8854221679901</v>
+        <v>31.36362707012832</v>
       </c>
       <c r="F18">
-        <v>182.6201668331087</v>
+        <v>136.7329029000674</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1276,19 +1276,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>163.6096190943022</v>
+        <v>163.6533602221344</v>
       </c>
       <c r="C19">
-        <v>0.4037699869783162</v>
+        <v>0.6284229512750652</v>
       </c>
       <c r="D19">
-        <v>15594.7087255161</v>
+        <v>15593.62712252711</v>
       </c>
       <c r="E19">
-        <v>8.050167921841076</v>
+        <v>14.38303289570069</v>
       </c>
       <c r="F19">
-        <v>43.5430998504038</v>
+        <v>43.19107959225032</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1296,19 +1296,19 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>163.0641260491792</v>
+        <v>163.0641260491894</v>
       </c>
       <c r="C20">
-        <v>0.8403635831108365</v>
+        <v>0.8403635831150827</v>
       </c>
       <c r="D20">
-        <v>16581.16017262544</v>
+        <v>16581.16017262503</v>
       </c>
       <c r="E20">
-        <v>20.48695855448835</v>
+        <v>20.48695855454722</v>
       </c>
       <c r="F20">
-        <v>24.94423213408077</v>
+        <v>24.94423213407204</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1316,19 +1316,19 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>148.0056760444948</v>
+        <v>148.0019309085375</v>
       </c>
       <c r="C21">
-        <v>0.6694350574417109</v>
+        <v>0.7059518197574965</v>
       </c>
       <c r="D21">
-        <v>16042.16111761775</v>
+        <v>16042.1871330195</v>
       </c>
       <c r="E21">
-        <v>16.07112465555912</v>
+        <v>16.31627467509417</v>
       </c>
       <c r="F21">
-        <v>43.07967840595102</v>
+        <v>44.08383685487519</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1336,19 +1336,19 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>179.2034286661233</v>
+        <v>179.1928621787881</v>
       </c>
       <c r="C22">
-        <v>0.3605871357824827</v>
+        <v>0.4306191344451952</v>
       </c>
       <c r="D22">
-        <v>16370.81148681924</v>
+        <v>16371.06817948576</v>
       </c>
       <c r="E22">
-        <v>8.215857149065965</v>
+        <v>9.998238725491781</v>
       </c>
       <c r="F22">
-        <v>17.40666143547014</v>
+        <v>17.85130303420292</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1356,19 +1356,19 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>162.7063475193151</v>
+        <v>162.6954793011159</v>
       </c>
       <c r="C23">
-        <v>0.3632769402567343</v>
+        <v>0.3417568979757662</v>
       </c>
       <c r="D23">
-        <v>16107.79413747925</v>
+        <v>16108.0642019336</v>
       </c>
       <c r="E23">
-        <v>8.546032242518089</v>
+        <v>7.976863958143571</v>
       </c>
       <c r="F23">
-        <v>20.03912145196009</v>
+        <v>20.1239589254802</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1376,19 +1376,19 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>176.120234460119</v>
+        <v>176.1202344425577</v>
       </c>
       <c r="C24">
-        <v>0.3610387633297177</v>
+        <v>0.3610387505226326</v>
       </c>
       <c r="D24">
-        <v>15882.27158725864</v>
+        <v>15882.2715876821</v>
       </c>
       <c r="E24">
-        <v>7.81762289477906</v>
+        <v>7.817622967560835</v>
       </c>
       <c r="F24">
-        <v>22.24930663905107</v>
+        <v>22.24930663171837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1396,19 +1396,19 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>151.2839838356884</v>
+        <v>151.3075241804537</v>
       </c>
       <c r="C25">
-        <v>0.9532668416918728</v>
+        <v>1.693303507369993</v>
       </c>
       <c r="D25">
-        <v>15048.09322162685</v>
+        <v>15044.66017957274</v>
       </c>
       <c r="E25">
-        <v>20.77037684837037</v>
+        <v>38.45245899448993</v>
       </c>
       <c r="F25">
-        <v>198.8311600087735</v>
+        <v>174.3759561653071</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1416,19 +1416,19 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>177.216817158521</v>
+        <v>177.2168172812827</v>
       </c>
       <c r="C26">
-        <v>1.458183702108903</v>
+        <v>1.458183698781685</v>
       </c>
       <c r="D26">
-        <v>15276.16174778421</v>
+        <v>15276.16174509254</v>
       </c>
       <c r="E26">
-        <v>34.23881089180572</v>
+        <v>34.23881065389072</v>
       </c>
       <c r="F26">
-        <v>144.0409108634882</v>
+        <v>144.0409104325321</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1436,19 +1436,19 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>171.5675943993788</v>
+        <v>171.5675943519732</v>
       </c>
       <c r="C27">
-        <v>1.413960562185033</v>
+        <v>1.41396045490095</v>
       </c>
       <c r="D27">
-        <v>15656.54106534725</v>
+        <v>15656.54106644404</v>
       </c>
       <c r="E27">
-        <v>32.55444527102957</v>
+        <v>32.55444277487499</v>
       </c>
       <c r="F27">
-        <v>106.5084085908403</v>
+        <v>106.5084082041385</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1456,19 +1456,19 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>166.3617667964509</v>
+        <v>166.3617667892782</v>
       </c>
       <c r="C28">
-        <v>0.587647678558934</v>
+        <v>0.5876477228346704</v>
       </c>
       <c r="D28">
-        <v>16376.26611856683</v>
+        <v>16376.26611838998</v>
       </c>
       <c r="E28">
-        <v>12.61264971341672</v>
+        <v>12.61264992934185</v>
       </c>
       <c r="F28">
-        <v>62.75170646684557</v>
+        <v>62.75170618776841</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1476,19 +1476,19 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>178.7565229830414</v>
+        <v>178.4941396208515</v>
       </c>
       <c r="C29">
-        <v>0.8717043923450181</v>
+        <v>0.4681163597052525</v>
       </c>
       <c r="D29">
-        <v>16329.7089506879</v>
+        <v>16333.64593201359</v>
       </c>
       <c r="E29">
-        <v>21.4680490199227</v>
+        <v>11.41652719210104</v>
       </c>
       <c r="F29">
-        <v>17.48502228356733</v>
+        <v>4.804832125899453</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1496,19 +1496,19 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>157.0027060201764</v>
+        <v>157.002705870632</v>
       </c>
       <c r="C30">
-        <v>0.7743972274974598</v>
+        <v>0.7743972849429678</v>
       </c>
       <c r="D30">
-        <v>15714.52893170331</v>
+        <v>15714.52893508652</v>
       </c>
       <c r="E30">
-        <v>17.33095726065974</v>
+        <v>17.33095778763965</v>
       </c>
       <c r="F30">
-        <v>34.59655419897554</v>
+        <v>34.59655419897894</v>
       </c>
     </row>
   </sheetData>
@@ -1549,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>167.1104508227127</v>
+        <v>167.1104508226258</v>
       </c>
       <c r="C2">
-        <v>0.6302166173951829</v>
+        <v>0.6302165986963471</v>
       </c>
       <c r="D2">
-        <v>15787.52122683771</v>
+        <v>15787.52122686656</v>
       </c>
       <c r="E2">
-        <v>15.23959366520017</v>
+        <v>15.23959319628474</v>
       </c>
       <c r="F2">
-        <v>27.57451339431169</v>
+        <v>27.5745127947579</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1569,19 +1569,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>179.3439351448139</v>
+        <v>179.3439351563103</v>
       </c>
       <c r="C3">
-        <v>0.2604573611629059</v>
+        <v>0.2604573445110382</v>
       </c>
       <c r="D3">
-        <v>16424.42370313337</v>
+        <v>16424.42370288454</v>
       </c>
       <c r="E3">
-        <v>4.979209660998222</v>
+        <v>4.979209525997931</v>
       </c>
       <c r="F3">
-        <v>12.47635320010897</v>
+        <v>12.47635298663548</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1589,19 +1589,19 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>180.5624684378955</v>
+        <v>180.5603806631134</v>
       </c>
       <c r="C4">
-        <v>0.3131687713984733</v>
+        <v>0.3198681772232705</v>
       </c>
       <c r="D4">
-        <v>15977.9070423472</v>
+        <v>15977.91998578621</v>
       </c>
       <c r="E4">
-        <v>6.918593446716381</v>
+        <v>6.932030903361112</v>
       </c>
       <c r="F4">
-        <v>23.18238982344083</v>
+        <v>23.19454135129936</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1609,19 +1609,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>185.7444264385882</v>
+        <v>185.6891143335602</v>
       </c>
       <c r="C5">
-        <v>0.2709835451734944</v>
+        <v>0.2391792909257408</v>
       </c>
       <c r="D5">
-        <v>15688.27517562255</v>
+        <v>15688.71700078563</v>
       </c>
       <c r="E5">
-        <v>6.621226453178889</v>
+        <v>5.694753619912801</v>
       </c>
       <c r="F5">
-        <v>4.288250675716227</v>
+        <v>3.151972813513007</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1629,19 +1629,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>160.5243992850903</v>
+        <v>160.524399257972</v>
       </c>
       <c r="C6">
-        <v>1.095786743482081</v>
+        <v>1.095786764907617</v>
       </c>
       <c r="D6">
-        <v>15744.67039829136</v>
+        <v>15744.6703988794</v>
       </c>
       <c r="E6">
-        <v>23.14936616488069</v>
+        <v>23.14936608495747</v>
       </c>
       <c r="F6">
-        <v>126.8821784123474</v>
+        <v>126.882178412356</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1652,13 +1652,13 @@
         <v>162.1697978676678</v>
       </c>
       <c r="C7">
-        <v>0.8459526724085876</v>
+        <v>0.8459526724085872</v>
       </c>
       <c r="D7">
         <v>15802.63728297432</v>
       </c>
       <c r="E7">
-        <v>19.96875603693174</v>
+        <v>19.96875603693173</v>
       </c>
       <c r="F7">
         <v>65.85064226084019</v>
@@ -1672,16 +1672,16 @@
         <v>194.5719699943867</v>
       </c>
       <c r="C8">
-        <v>0.1333941134831376</v>
+        <v>0.13339411348314</v>
       </c>
       <c r="D8">
         <v>15849.42481874234</v>
       </c>
       <c r="E8">
-        <v>3.076122158137403</v>
+        <v>3.076122158136664</v>
       </c>
       <c r="F8">
-        <v>4.562462879239578</v>
+        <v>4.562462879239582</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1689,19 +1689,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>155.3995075568235</v>
+        <v>155.2262808409325</v>
       </c>
       <c r="C9">
-        <v>0.6510063902818702</v>
+        <v>1.011821556258329</v>
       </c>
       <c r="D9">
-        <v>16081.47997014269</v>
+        <v>16082.60679765344</v>
       </c>
       <c r="E9">
-        <v>14.12480795117651</v>
+        <v>21.85303610368468</v>
       </c>
       <c r="F9">
-        <v>131.6790991223752</v>
+        <v>109.7977136119114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1709,19 +1709,19 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>143.4778384714011</v>
+        <v>143.7594905980148</v>
       </c>
       <c r="C10">
-        <v>2.308377437494199</v>
+        <v>2.41382535940525</v>
       </c>
       <c r="D10">
-        <v>15235.25865854821</v>
+        <v>15231.71987426776</v>
       </c>
       <c r="E10">
-        <v>53.20617018909688</v>
+        <v>57.29377511734702</v>
       </c>
       <c r="F10">
-        <v>117.4730640200933</v>
+        <v>139.4994629050659</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1729,19 +1729,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>181.6813197230432</v>
+        <v>181.6067903105928</v>
       </c>
       <c r="C11">
-        <v>0.5399588759810691</v>
+        <v>0.5332244563542994</v>
       </c>
       <c r="D11">
-        <v>16075.97773559958</v>
+        <v>16076.62715683149</v>
       </c>
       <c r="E11">
-        <v>12.94139809511735</v>
+        <v>12.10638844226902</v>
       </c>
       <c r="F11">
-        <v>29.52012158914608</v>
+        <v>25.38356854901423</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1749,19 +1749,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>169.7277855875646</v>
+        <v>169.7277855814468</v>
       </c>
       <c r="C12">
-        <v>0.3498485042831982</v>
+        <v>0.3498485048934601</v>
       </c>
       <c r="D12">
-        <v>15959.19754054</v>
+        <v>15959.19754041284</v>
       </c>
       <c r="E12">
-        <v>7.650407110986628</v>
+        <v>7.650407153023089</v>
       </c>
       <c r="F12">
-        <v>31.4411202435718</v>
+        <v>31.44112024673105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1769,19 +1769,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>192.5119955030655</v>
+        <v>192.511995504143</v>
       </c>
       <c r="C13">
-        <v>0.02408515447933915</v>
+        <v>0.02408515402093285</v>
       </c>
       <c r="D13">
-        <v>15977.02775311765</v>
+        <v>15977.02775309006</v>
       </c>
       <c r="E13">
-        <v>0.3979478596703469</v>
+        <v>0.3979478540061803</v>
       </c>
       <c r="F13">
-        <v>0.1250811789309174</v>
+        <v>0.1250811774084516</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1789,19 +1789,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>163.6386099359683</v>
+        <v>163.6389972261618</v>
       </c>
       <c r="C14">
-        <v>1.395908595166278</v>
+        <v>1.401744264439282</v>
       </c>
       <c r="D14">
-        <v>15194.65630782152</v>
+        <v>15194.67018813468</v>
       </c>
       <c r="E14">
-        <v>31.21275943525172</v>
+        <v>31.34561351387805</v>
       </c>
       <c r="F14">
-        <v>150.8050462078444</v>
+        <v>152.0539253989467</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1809,19 +1809,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>174.5408010959228</v>
+        <v>174.5284886370112</v>
       </c>
       <c r="C15">
-        <v>0.2993158754848981</v>
+        <v>0.3209059022245925</v>
       </c>
       <c r="D15">
-        <v>15788.20152914667</v>
+        <v>15788.23072045919</v>
       </c>
       <c r="E15">
-        <v>5.487246364860664</v>
+        <v>5.913562474882568</v>
       </c>
       <c r="F15">
-        <v>10.44807310363515</v>
+        <v>12.13672705784378</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1829,19 +1829,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>150.7056499894989</v>
+        <v>150.5347588450825</v>
       </c>
       <c r="C16">
-        <v>0.8585465305382498</v>
+        <v>0.9053681533078862</v>
       </c>
       <c r="D16">
-        <v>15444.13307280379</v>
+        <v>15445.26954623474</v>
       </c>
       <c r="E16">
-        <v>16.56601243395779</v>
+        <v>15.64977627856102</v>
       </c>
       <c r="F16">
-        <v>175.3339193536214</v>
+        <v>151.2851281360313</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1849,19 +1849,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>166.5611891023581</v>
+        <v>166.5191583647485</v>
       </c>
       <c r="C17">
-        <v>3.267707506881605</v>
+        <v>3.260849697612719</v>
       </c>
       <c r="D17">
-        <v>15590.30125458577</v>
+        <v>15591.01778051663</v>
       </c>
       <c r="E17">
-        <v>79.98803385308806</v>
+        <v>79.59635440639227</v>
       </c>
       <c r="F17">
-        <v>139.3989691063764</v>
+        <v>137.3049524175636</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1869,19 +1869,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>173.7268483974908</v>
+        <v>173.726848397442</v>
       </c>
       <c r="C18">
-        <v>1.211320200456502</v>
+        <v>1.211320205293019</v>
       </c>
       <c r="D18">
-        <v>15181.65697586845</v>
+        <v>15181.65697586951</v>
       </c>
       <c r="E18">
-        <v>26.93545963540372</v>
+        <v>26.93545949065322</v>
       </c>
       <c r="F18">
-        <v>70.02849804702223</v>
+        <v>70.02849804700971</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1889,19 +1889,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>168.3901242627867</v>
+        <v>168.3901242627437</v>
       </c>
       <c r="C19">
-        <v>1.172694731807904</v>
+        <v>1.172694646159912</v>
       </c>
       <c r="D19">
-        <v>15074.27831651018</v>
+        <v>15074.27831651106</v>
       </c>
       <c r="E19">
-        <v>26.49793987855211</v>
+        <v>26.49793917010972</v>
       </c>
       <c r="F19">
-        <v>105.6731477317965</v>
+        <v>105.6731477318053</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1909,19 +1909,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>154.5529762939977</v>
+        <v>154.5529763642806</v>
       </c>
       <c r="C20">
-        <v>0.6346530120300719</v>
+        <v>0.6346530403913888</v>
       </c>
       <c r="D20">
-        <v>15629.2940636081</v>
+        <v>15629.29406251023</v>
       </c>
       <c r="E20">
-        <v>11.45955812760963</v>
+        <v>11.4595582262757</v>
       </c>
       <c r="F20">
-        <v>36.29342003995451</v>
+        <v>36.29342003996319</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1929,19 +1929,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>159.9943000867856</v>
+        <v>159.9943001397296</v>
       </c>
       <c r="C21">
-        <v>0.7048964381729623</v>
+        <v>0.7048964937717009</v>
       </c>
       <c r="D21">
-        <v>15362.3905848551</v>
+        <v>15362.39058392024</v>
       </c>
       <c r="E21">
-        <v>14.57716968981543</v>
+        <v>14.57716992898905</v>
       </c>
       <c r="F21">
-        <v>132.6593522346791</v>
+        <v>132.6593524238921</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1949,19 +1949,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>185.1892661949456</v>
+        <v>185.0629534032693</v>
       </c>
       <c r="C22">
-        <v>0.2234302271477139</v>
+        <v>0.1780680099030358</v>
       </c>
       <c r="D22">
-        <v>15856.77149515877</v>
+        <v>15857.59317690837</v>
       </c>
       <c r="E22">
-        <v>5.252605333670462</v>
+        <v>3.967210561518113</v>
       </c>
       <c r="F22">
-        <v>5.036441838011447</v>
+        <v>2.846036385137391</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1969,19 +1969,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>175.713576701991</v>
+        <v>175.6184574945241</v>
       </c>
       <c r="C23">
-        <v>0.4106546503453808</v>
+        <v>0.3840329444060407</v>
       </c>
       <c r="D23">
-        <v>16329.04188411292</v>
+        <v>16329.70605495248</v>
       </c>
       <c r="E23">
-        <v>9.56261939487819</v>
+        <v>8.458756634051035</v>
       </c>
       <c r="F23">
-        <v>57.16840467690206</v>
+        <v>44.21155844476513</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1989,19 +1989,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>175.9411604727686</v>
+        <v>175.941160237006</v>
       </c>
       <c r="C24">
-        <v>1.852991155983562</v>
+        <v>1.852991341429395</v>
       </c>
       <c r="D24">
-        <v>15619.76377042524</v>
+        <v>15619.76377631013</v>
       </c>
       <c r="E24">
-        <v>44.45547100911106</v>
+        <v>44.45547326372083</v>
       </c>
       <c r="F24">
-        <v>135.5121506865476</v>
+        <v>135.5121508680372</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2009,19 +2009,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>172.1487013170527</v>
+        <v>172.1487013160445</v>
       </c>
       <c r="C25">
-        <v>0.2388475629550352</v>
+        <v>0.2388475453495944</v>
       </c>
       <c r="D25">
-        <v>16691.06398586967</v>
+        <v>16691.06398573093</v>
       </c>
       <c r="E25">
-        <v>5.431463502519764</v>
+        <v>5.431463390059108</v>
       </c>
       <c r="F25">
-        <v>16.50957026619471</v>
+        <v>16.5095702662034</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2029,19 +2029,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>150.3129813846699</v>
+        <v>150.2900884736131</v>
       </c>
       <c r="C26">
-        <v>0.3909253445735871</v>
+        <v>0.4624059486370984</v>
       </c>
       <c r="D26">
-        <v>16081.84719305617</v>
+        <v>16081.99192872328</v>
       </c>
       <c r="E26">
-        <v>8.548806031642973</v>
+        <v>8.760361108092967</v>
       </c>
       <c r="F26">
-        <v>51.77295104542499</v>
+        <v>52.7189375883917</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2049,19 +2049,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>160.0393838974418</v>
+        <v>160.0393838834578</v>
       </c>
       <c r="C27">
-        <v>3.414092416827532</v>
+        <v>3.414090965482185</v>
       </c>
       <c r="D27">
-        <v>15920.16868874627</v>
+        <v>15920.16868907924</v>
       </c>
       <c r="E27">
-        <v>81.31843601915358</v>
+        <v>81.31840298886289</v>
       </c>
       <c r="F27">
-        <v>88.81355964776682</v>
+        <v>88.81355996862597</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2069,19 +2069,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>164.857454770294</v>
+        <v>164.8574547227501</v>
       </c>
       <c r="C28">
-        <v>1.070711866356046</v>
+        <v>1.070711938433003</v>
       </c>
       <c r="D28">
-        <v>15577.27107197777</v>
+        <v>15577.27107314064</v>
       </c>
       <c r="E28">
-        <v>25.40845538016648</v>
+        <v>25.40845612626134</v>
       </c>
       <c r="F28">
-        <v>52.04992745708466</v>
+        <v>52.0499275777575</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2089,19 +2089,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>155.5159933161174</v>
+        <v>155.5159933257424</v>
       </c>
       <c r="C29">
-        <v>1.056781698092409</v>
+        <v>1.056781720473428</v>
       </c>
       <c r="D29">
-        <v>15399.06773863568</v>
+        <v>15399.06773835508</v>
       </c>
       <c r="E29">
-        <v>22.3612274318569</v>
+        <v>22.36122764073739</v>
       </c>
       <c r="F29">
-        <v>193.8078423541323</v>
+        <v>193.8078441176336</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2109,19 +2109,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>158.5526032644936</v>
+        <v>158.5526032645005</v>
       </c>
       <c r="C30">
-        <v>0.9639369619157802</v>
+        <v>0.9639370385564618</v>
       </c>
       <c r="D30">
-        <v>16201.7209605047</v>
+        <v>16201.72096050451</v>
       </c>
       <c r="E30">
-        <v>23.05988412178834</v>
+        <v>23.05988597829473</v>
       </c>
       <c r="F30">
-        <v>76.44511172238359</v>
+        <v>76.44511172236149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2129,19 +2129,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>185.0975010867707</v>
+        <v>185.0975010876773</v>
       </c>
       <c r="C31">
-        <v>0.4355155948737619</v>
+        <v>0.4355155934670361</v>
       </c>
       <c r="D31">
-        <v>15182.02961315519</v>
+        <v>15182.02961313333</v>
       </c>
       <c r="E31">
-        <v>7.661010746737587</v>
+        <v>7.66101056381217</v>
       </c>
       <c r="F31">
-        <v>14.70670047327988</v>
+        <v>14.70670046899982</v>
       </c>
     </row>
   </sheetData>
@@ -2182,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>147.0410140191725</v>
+        <v>146.9697534608223</v>
       </c>
       <c r="C2">
-        <v>0.7706359330120603</v>
+        <v>0.4784286292011105</v>
       </c>
       <c r="D2">
-        <v>15969.10551418128</v>
+        <v>15970.87396540226</v>
       </c>
       <c r="E2">
-        <v>18.47022859148365</v>
+        <v>10.77206453048011</v>
       </c>
       <c r="F2">
-        <v>61.66623682599815</v>
+        <v>62.49047799668742</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>165.2388029410204</v>
+        <v>164.2385426690964</v>
       </c>
       <c r="C3">
-        <v>2.603343731139166</v>
+        <v>1.230886826021478</v>
       </c>
       <c r="D3">
-        <v>14908.20299471095</v>
+        <v>14935.09557937497</v>
       </c>
       <c r="E3">
-        <v>61.04585046954808</v>
+        <v>28.19789992882291</v>
       </c>
       <c r="F3">
-        <v>74.70873296497027</v>
+        <v>125.5312986507925</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>169.3440615521027</v>
+        <v>169.2621782439973</v>
       </c>
       <c r="C4">
-        <v>0.5474544796034019</v>
+        <v>0.5789705295731559</v>
       </c>
       <c r="D4">
-        <v>15246.66235083181</v>
+        <v>15248.63579561782</v>
       </c>
       <c r="E4">
-        <v>10.84001846927573</v>
+        <v>11.6592903224721</v>
       </c>
       <c r="F4">
-        <v>80.43820703402196</v>
+        <v>83.54782898805813</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>168.2863374533867</v>
+        <v>168.2863374498934</v>
       </c>
       <c r="C5">
-        <v>0.3229226653589604</v>
+        <v>0.3229226394330252</v>
       </c>
       <c r="D5">
-        <v>16044.64790646215</v>
+        <v>16044.64790654858</v>
       </c>
       <c r="E5">
-        <v>6.540524007764986</v>
+        <v>6.540523460416369</v>
       </c>
       <c r="F5">
-        <v>29.51165024475229</v>
+        <v>29.51165024474244</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>141.51536401621</v>
+        <v>141.5153638696416</v>
       </c>
       <c r="C6">
-        <v>1.410546173498132</v>
+        <v>1.410546313092466</v>
       </c>
       <c r="D6">
-        <v>15863.83641741203</v>
+        <v>15863.83642085906</v>
       </c>
       <c r="E6">
-        <v>34.3226617716089</v>
+        <v>34.32266297797437</v>
       </c>
       <c r="F6">
-        <v>80.80638005708934</v>
+        <v>80.80638011188515</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>165.5510506261744</v>
+        <v>165.5510506047258</v>
       </c>
       <c r="C7">
-        <v>0.3411505832297734</v>
+        <v>0.3411505694568551</v>
       </c>
       <c r="D7">
-        <v>16185.78327205537</v>
+        <v>16185.78327247243</v>
       </c>
       <c r="E7">
-        <v>6.826075626101022</v>
+        <v>6.826075480092101</v>
       </c>
       <c r="F7">
-        <v>6.127431652219659</v>
+        <v>6.1274316239151</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>178.6441662191013</v>
+        <v>178.6441661938749</v>
       </c>
       <c r="C8">
-        <v>0.2362712832183074</v>
+        <v>0.236271295566684</v>
       </c>
       <c r="D8">
-        <v>15647.29957913286</v>
+        <v>15647.29957968206</v>
       </c>
       <c r="E8">
-        <v>4.42527280525157</v>
+        <v>4.425272868104913</v>
       </c>
       <c r="F8">
-        <v>23.81703754487362</v>
+        <v>23.81703753810971</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>169.2539200352059</v>
+        <v>176.4069357612037</v>
       </c>
       <c r="C9">
-        <v>0.2362377077093425</v>
+        <v>0.1640514950694757</v>
       </c>
       <c r="D9">
-        <v>16172.88754874371</v>
+        <v>15996.72436285183</v>
       </c>
       <c r="E9">
-        <v>3.043110355284882</v>
+        <v>3.644615261109223</v>
       </c>
       <c r="F9">
-        <v>60.0495960291924</v>
+        <v>3.281821666883979</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>164.5308778138213</v>
+        <v>164.5308778082415</v>
       </c>
       <c r="C10">
-        <v>0.7199306564886516</v>
+        <v>0.7199307247543707</v>
       </c>
       <c r="D10">
-        <v>16575.23494334776</v>
+        <v>16575.23494348363</v>
       </c>
       <c r="E10">
-        <v>16.99654698380066</v>
+        <v>16.99654799567909</v>
       </c>
       <c r="F10">
-        <v>45.92338183540823</v>
+        <v>45.92338193081619</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>171.2409986221473</v>
+        <v>171.2383990940243</v>
       </c>
       <c r="C11">
-        <v>0.3843979738940219</v>
+        <v>0.3416223035028865</v>
       </c>
       <c r="D11">
-        <v>16195.75164858696</v>
+        <v>16196.23660966163</v>
       </c>
       <c r="E11">
-        <v>8.830246892474575</v>
+        <v>7.895725641093701</v>
       </c>
       <c r="F11">
-        <v>11.22659639358987</v>
+        <v>8.8653560271703</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>153.6775722185817</v>
+        <v>153.6775721918038</v>
       </c>
       <c r="C12">
-        <v>1.032878032041952</v>
+        <v>1.032878075879345</v>
       </c>
       <c r="D12">
-        <v>15231.04641440367</v>
+        <v>15231.0464156942</v>
       </c>
       <c r="E12">
-        <v>25.04001690826907</v>
+        <v>25.04001807959075</v>
       </c>
       <c r="F12">
-        <v>53.37995147441497</v>
+        <v>53.37995150635685</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>177.6133647558747</v>
+        <v>177.6133647582268</v>
       </c>
       <c r="C13">
-        <v>0.5757813776935516</v>
+        <v>0.5757813122267</v>
       </c>
       <c r="D13">
-        <v>15822.45243036598</v>
+        <v>15822.45243033705</v>
       </c>
       <c r="E13">
-        <v>11.53412644120888</v>
+        <v>11.53412544142161</v>
       </c>
       <c r="F13">
-        <v>26.09511021892949</v>
+        <v>26.09511018617716</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>157.4466316588446</v>
+        <v>156.3970285060941</v>
       </c>
       <c r="C14">
-        <v>3.004738745186957</v>
+        <v>1.289640276093502</v>
       </c>
       <c r="D14">
-        <v>15148.83169644267</v>
+        <v>15176.45638302153</v>
       </c>
       <c r="E14">
-        <v>74.01052372397842</v>
+        <v>31.60235203547505</v>
       </c>
       <c r="F14">
-        <v>119.5373556440412</v>
+        <v>153.2737401041602</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>158.5021256733375</v>
+        <v>158.5021257247368</v>
       </c>
       <c r="C15">
-        <v>0.7588931543187005</v>
+        <v>0.7588931414681864</v>
       </c>
       <c r="D15">
-        <v>16013.72106947167</v>
+        <v>16013.72106826857</v>
       </c>
       <c r="E15">
-        <v>16.60213969436271</v>
+        <v>16.60213957803546</v>
       </c>
       <c r="F15">
-        <v>117.6193989320526</v>
+        <v>117.6193988966751</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>162.2792156423286</v>
+        <v>162.2692153851252</v>
       </c>
       <c r="C16">
-        <v>0.5214051508683636</v>
+        <v>0.5751988564492356</v>
       </c>
       <c r="D16">
-        <v>15756.45620457525</v>
+        <v>15756.52583783783</v>
       </c>
       <c r="E16">
-        <v>10.86545712041385</v>
+        <v>11.26621186276444</v>
       </c>
       <c r="F16">
-        <v>34.90949636028772</v>
+        <v>36.90973698190841</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>137.5676500149482</v>
+        <v>137.090019873597</v>
       </c>
       <c r="C17">
-        <v>0.802817404559772</v>
+        <v>0.8254517154432083</v>
       </c>
       <c r="D17">
-        <v>15718.50015623576</v>
+        <v>15721.21128426142</v>
       </c>
       <c r="E17">
-        <v>13.69493685779531</v>
+        <v>16.46300484775872</v>
       </c>
       <c r="F17">
-        <v>3005.861065532306</v>
+        <v>4488.950975450739</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>153.5347642070801</v>
+        <v>153.5243497824227</v>
       </c>
       <c r="C18">
-        <v>1.080192202346231</v>
+        <v>1.123531721513784</v>
       </c>
       <c r="D18">
-        <v>15329.26164374809</v>
+        <v>15329.11671563454</v>
       </c>
       <c r="E18">
-        <v>25.59521702862799</v>
+        <v>26.43221159545287</v>
       </c>
       <c r="F18">
-        <v>71.70499322966013</v>
+        <v>76.41531078103948</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>164.5560961929527</v>
+        <v>164.6999406331052</v>
       </c>
       <c r="C19">
-        <v>0.4433278562520411</v>
+        <v>0.732305966333854</v>
       </c>
       <c r="D19">
-        <v>15942.35916527055</v>
+        <v>15939.2910626505</v>
       </c>
       <c r="E19">
-        <v>10.13637977876359</v>
+        <v>17.68695863825029</v>
       </c>
       <c r="F19">
-        <v>63.71580449146027</v>
+        <v>65.33120148567467</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>162.5035533780034</v>
+        <v>162.6588676408205</v>
       </c>
       <c r="C20">
-        <v>0.4962886109254332</v>
+        <v>0.8554890982165395</v>
       </c>
       <c r="D20">
-        <v>15214.11399621433</v>
+        <v>15210.40182358412</v>
       </c>
       <c r="E20">
-        <v>11.01421253282567</v>
+        <v>20.05353539650373</v>
       </c>
       <c r="F20">
-        <v>110.7239929320904</v>
+        <v>111.8037082501258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>179.633145089454</v>
+        <v>179.633145093996</v>
       </c>
       <c r="C21">
-        <v>0.1307431183671124</v>
+        <v>0.1307430994096504</v>
       </c>
       <c r="D21">
-        <v>15888.69653046873</v>
+        <v>15888.69653036791</v>
       </c>
       <c r="E21">
-        <v>3.000004324405346</v>
+        <v>3.000004040059058</v>
       </c>
       <c r="F21">
-        <v>7.304054959877932</v>
+        <v>7.304054931711024</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>153.8030284314179</v>
+        <v>153.8030284304938</v>
       </c>
       <c r="C22">
-        <v>1.463700345520467</v>
+        <v>1.463700348973283</v>
       </c>
       <c r="D22">
-        <v>15190.47590162238</v>
+        <v>15190.47590158728</v>
       </c>
       <c r="E22">
-        <v>34.30778732726473</v>
+        <v>34.30778739967408</v>
       </c>
       <c r="F22">
-        <v>87.56001709137706</v>
+        <v>87.56001749375172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>166.5283512100582</v>
+        <v>166.4944353861766</v>
       </c>
       <c r="C23">
-        <v>0.4125714540785377</v>
+        <v>0.4453575549710942</v>
       </c>
       <c r="D23">
-        <v>16011.56151737611</v>
+        <v>16011.78270638197</v>
       </c>
       <c r="E23">
-        <v>9.553185178123583</v>
+        <v>9.474194105945925</v>
       </c>
       <c r="F23">
-        <v>33.75734378695059</v>
+        <v>32.67285142665737</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>162.2966018717717</v>
+        <v>162.1153431721337</v>
       </c>
       <c r="C24">
-        <v>0.9051426200875781</v>
+        <v>0.8663713822583035</v>
       </c>
       <c r="D24">
-        <v>15751.3118059861</v>
+        <v>15752.76846527371</v>
       </c>
       <c r="E24">
-        <v>21.75550816098732</v>
+        <v>19.47635092445413</v>
       </c>
       <c r="F24">
-        <v>125.344769639443</v>
+        <v>98.64783758605856</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>157.7158961550193</v>
+        <v>157.6841158123353</v>
       </c>
       <c r="C25">
-        <v>0.5132772389335217</v>
+        <v>0.4115292674105568</v>
       </c>
       <c r="D25">
-        <v>15464.66574110269</v>
+        <v>15465.45385357119</v>
       </c>
       <c r="E25">
-        <v>11.69480714034462</v>
+        <v>8.871301837881747</v>
       </c>
       <c r="F25">
-        <v>56.76021290839169</v>
+        <v>57.21173326601551</v>
       </c>
     </row>
   </sheetData>
